--- a/vote_records.xlsx
+++ b/vote_records.xlsx
@@ -1,80 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\OneDrive\Documents\GitHub\Hackmart_Enigma\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8340"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>VoterID</t>
-  </si>
-  <si>
-    <t>VoterName</t>
-  </si>
-  <si>
-    <t>CandidateVoted</t>
-  </si>
-  <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
-    <t>IPAddress</t>
-  </si>
-  <si>
-    <t>GeolocationCity</t>
-  </si>
-  <si>
-    <t>GeolocationCountry</t>
-  </si>
-  <si>
-    <t>VotedStatus</t>
-  </si>
-  <si>
-    <t>KYCImageHash</t>
-  </si>
-  <si>
-    <t>BlockHash</t>
-  </si>
-  <si>
-    <t>VoteHash</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -413,48 +420,184 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>VoterID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>VoterName</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>CandidateVoted</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IPAddress</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>GeolocationCity</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>GeolocationCountry</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>VotedStatus</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>KYCImageHash</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>BlockHash</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>VoteHash</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>V001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Love Mathur</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-11-01 14:09:06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H2" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>16c132cb7e04535c545ab5ba5dfa18fdd89a8ef5ae18efc21a07542105355159</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>295e29a7907457570d4cefe53c0002c21ba52ff98f4942ab3716d22f6af90431</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>eb07324bde310e1faf7ad26c7f26017b15bfb3b9ccff9c3611b55ae4b0be554e</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>V001</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Vineet Verma</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-11-01 14:37:11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>9338c66a1f41de7d031ff94bf41681cd2860d91c2eed2d9c5aa30ed8d496d90a</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>29263e99a27034ac78c2e08644571c31b07e3f57ee2df0067f3420a2185e0dbd</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>d39e3befcd64d1827a61096234e3c9aa8126dafdc1bb13444bf749ca580e783a</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/vote_records.xlsx
+++ b/vote_records.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,6 +600,116 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>V001</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yash Gupta</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-11-01 15:47:54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>048af77058deed684d353218529d4b75716d3180dfc761767764000f1315c95b</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>053427f8f402cd599c5e4a2b0767c5a7fc4d2e61b3fbf155c0def749b5414cf4</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>ba244d86b42c4e4a70c78484a08eb27e800e6909af89e97a2a8bb1e7b081c2b5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>V001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Vineet Verma</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-11-01 15:50:26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>127.0.0.1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3edf94cd8123e609090218e38718c4455a0d13ce2c7ff0484ce450bbdfe10465</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>e6ff6be85d2bcbf1469002b9aeaf91cf46cf0357ce35a3c3e30e51de1014eb68</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>f356d4480a350f7c06a52aeeeb3a5820623c21a9ece8e8798cd3ba4d49a05534</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
